--- a/inf_basic/despesas_casa.xlsx
+++ b/inf_basic/despesas_casa.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\estudos\inf_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0929983E-D445-4217-9C66-32A93B5F5496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B1309B-7E46-40BD-BEB8-B46476E48139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC3022B9-9FC0-4D45-830F-6128F0DB555D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Evolução" sheetId="3" r:id="rId2"/>
+    <sheet name="Despesas" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>DESPESAS</t>
   </si>
@@ -99,13 +101,10 @@
     <t>Número de despesa &lt; 50,00</t>
   </si>
   <si>
-    <t>&gt;50</t>
+    <t>Valor de despesas mais comum</t>
   </si>
   <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t>Valor de despesas mais comum</t>
+    <t>Indicador do Trimestre</t>
   </si>
 </sst>
 </file>
@@ -140,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -545,25 +544,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,7 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -588,12 +603,46 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,6 +652,2451 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Despesas Automóvel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-534D-4904-B921-01BF050661DA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-534D-4904-B921-01BF050661DA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="32"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-534D-4904-B921-01BF050661DA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-534D-4904-B921-01BF050661DA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Despesas!$D$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1ª Trimestre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2ª Trimestre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3ª Trimestre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4ª Trimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Despesas!$D$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-534D-4904-B921-01BF050661DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85300452366811441"/>
+          <c:y val="0.4115577646006961"/>
+          <c:w val="0.13879235145804086"/>
+          <c:h val="0.19148080027867184"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Despesas!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1ª Trimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Despesas!$C$4:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prestação habitação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prestação automóvel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eletricidade</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Água</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Telefone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Telemóvel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Automóvel</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Habitação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Despesas!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0406-4A4F-83D6-649EBB0C25E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Despesas!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2ª Trimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Despesas!$C$4:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prestação habitação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prestação automóvel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eletricidade</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Água</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Telefone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Telemóvel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Automóvel</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Habitação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Despesas!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0406-4A4F-83D6-649EBB0C25E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Despesas!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3ª Trimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Despesas!$C$4:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prestação habitação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prestação automóvel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eletricidade</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Água</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Telefone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Telemóvel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Automóvel</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Habitação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Despesas!$F$4:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0406-4A4F-83D6-649EBB0C25E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Despesas!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4ª Trimestre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Despesas!$C$4:$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Prestação habitação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prestação automóvel</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eletricidade</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Água</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Telefone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Telemóvel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentação</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Vestuário</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Automóvel</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Habitação</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Despesas!$G$4:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0406-4A4F-83D6-649EBB0C25E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1947101408"/>
+        <c:axId val="1870692224"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1947101408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870692224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1870692224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947101408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12988867016622921"/>
+          <c:y val="0.8616892680081657"/>
+          <c:w val="0.74022244094488177"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6F9FE235-CFE7-411B-AFEB-E3260CDBA870}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9289143" cy="6068786"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3919C5F-D043-295E-76E3-3FCDE4DCD454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5708EF2E-84F7-0232-2EED-ECD0E6156ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,11 +3395,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EDABE2-A97D-48EC-A1BD-B96C6AF8EA84}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF28F60B-659C-4B3E-91C7-1C1504411EDA}">
-  <dimension ref="A2:G25"/>
+  <sheetPr>
+    <tabColor rgb="FFFF33CC"/>
+  </sheetPr>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" activeCellId="1" sqref="D12:G12 D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,382 +3432,407 @@
   <sheetData>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:7" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="27"/>
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>350</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>350</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="15">
         <v>363</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="17">
         <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="27"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>300</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>300</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>294</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="17">
         <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="27"/>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="15">
         <v>40</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="15">
         <v>30</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="15">
         <v>25</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="27"/>
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="15">
         <v>20</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>27</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="15">
         <v>30</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="27"/>
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="15">
         <v>35</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="15">
         <v>32</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="15">
         <v>25</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="27"/>
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="15">
         <v>10</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>5</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="15">
         <v>15</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="27"/>
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="15">
         <v>80</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>65</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <v>70</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="27"/>
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="15">
         <v>25</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <v>30</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="15">
         <v>25</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="17">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="27"/>
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="15">
         <v>35</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>25</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="15">
         <v>32</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="27"/>
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="16">
         <v>10</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>20</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="18">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
+      <c r="A14" s="27"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="27"/>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <f>SUM(D4:D13)</f>
         <v>905</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <f t="shared" ref="E15:G15" si="0">SUM(E4:E13)</f>
         <v>884</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>884</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="20">
         <f t="shared" si="0"/>
         <v>1056</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="27"/>
+      <c r="C16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="30" t="str">
+        <f>IF(D15&gt;900,"Má","Boa")</f>
+        <v>Má</v>
+      </c>
+      <c r="E16" s="30" t="str">
+        <f t="shared" ref="E16:G16" si="1">IF(E15&gt;900,"Má","Boa")</f>
+        <v>Boa</v>
+      </c>
+      <c r="F16" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Boa</v>
+      </c>
+      <c r="G16" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>Má</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="27"/>
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D17" s="21">
         <f>AVERAGE(D4:D13)</f>
         <v>90.5</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E17" s="21">
         <f>AVERAGE(E4:E13)</f>
         <v>88.4</v>
       </c>
-      <c r="F16" s="25">
-        <f t="shared" ref="F16:G16" si="1">AVERAGE(F4:F13)</f>
+      <c r="F17" s="21">
+        <f t="shared" ref="F17:G17" si="2">AVERAGE(F4:F13)</f>
         <v>88.4</v>
       </c>
-      <c r="G16" s="26">
-        <f t="shared" si="1"/>
+      <c r="G17" s="22">
+        <f t="shared" si="2"/>
         <v>105.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27"/>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D18" s="21">
         <f>MAX(D4:D13)</f>
         <v>350</v>
       </c>
-      <c r="E17" s="25">
-        <f t="shared" ref="E17:G17" si="2">MAX(E4:E13)</f>
+      <c r="E18" s="21">
+        <f t="shared" ref="E18:G18" si="3">MAX(E4:E13)</f>
         <v>350</v>
       </c>
-      <c r="F17" s="25">
-        <f t="shared" si="2"/>
+      <c r="F18" s="21">
+        <f t="shared" si="3"/>
         <v>363</v>
       </c>
-      <c r="G17" s="26">
-        <f t="shared" si="2"/>
+      <c r="G18" s="22">
+        <f t="shared" si="3"/>
         <v>363</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="C18" s="4" t="s">
+    <row r="19" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="27"/>
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D19" s="23">
         <f>MIN(D4:D13)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="27">
-        <f t="shared" ref="E18:G18" si="3">MIN(E4:E13)</f>
+      <c r="E19" s="23">
+        <f t="shared" ref="E19:G19" si="4">MIN(E4:E13)</f>
         <v>5</v>
       </c>
-      <c r="F18" s="27">
-        <f t="shared" si="3"/>
+      <c r="F19" s="23">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G18" s="28">
-        <f t="shared" si="3"/>
+      <c r="G19" s="24">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="C20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="29">
-        <f>SUMIF(D4:D13,C$24,D4:D13)</f>
-        <v>730</v>
-      </c>
-      <c r="E20" s="14">
-        <f>SUMIF(E4:E13,$C$24,E4:E13)</f>
-        <v>715</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" ref="F20:G20" si="4">SUMIF(F4:F13,$C$24,F4:F13)</f>
-        <v>727</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="4"/>
-        <v>882</v>
-      </c>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="C21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="A21" s="27"/>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="25">
+        <f>SUMIF(D4:D13,"&gt;50",D4:D13)</f>
+        <v>730</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" ref="E21:G21" si="5">SUMIF(E4:E13,"&gt;50",E4:E13)</f>
+        <v>715</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="5"/>
+        <v>727</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="5"/>
+        <v>882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="27"/>
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="12">
         <f>MODE(D4:D13)</f>
         <v>35</v>
       </c>
-      <c r="E21" s="16">
-        <f t="shared" ref="E21:G21" si="5">MODE(E4:E13)</f>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:G22" si="6">MODE(E4:E13)</f>
         <v>30</v>
       </c>
-      <c r="F21" s="16">
-        <f t="shared" si="5"/>
+      <c r="F22" s="12">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="G21" s="16" t="e">
-        <f t="shared" si="5"/>
+      <c r="G22" s="12" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="C22" s="17" t="s">
+    <row r="23" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
+      <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="18">
-        <f>COUNTIF(D4:$D$13,C25)</f>
+      <c r="D23" s="14">
+        <f>COUNTIF(D4:D13,"&lt;50")</f>
         <v>7</v>
       </c>
-      <c r="E22" s="18">
-        <f>COUNTIF(E4:E13,$C$25)</f>
+      <c r="E23" s="14">
+        <f t="shared" ref="E23:G23" si="7">COUNTIF(E4:E13,"&lt;50")</f>
         <v>7</v>
       </c>
-      <c r="F22" s="18">
-        <f t="shared" ref="F22:G22" si="6">COUNTIF(F4:F13,$C$25)</f>
+      <c r="F23" s="14">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G22" s="18">
-        <f t="shared" si="6"/>
+      <c r="G23" s="14">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A3:A23"/>
   </mergeCells>
+  <conditionalFormatting sqref="D16:G16">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Má"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Boa"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:G16">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Boa"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>